--- a/biology/Zoologie/Colin_à_face_blanche/Colin_à_face_blanche.xlsx
+++ b/biology/Zoologie/Colin_à_face_blanche/Colin_à_face_blanche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Colin_%C3%A0_face_blanche</t>
+          <t>Colin_à_face_blanche</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colinus leucopogon
 Le Colin à face blanche (Colinus leucopogon) est une espèce d'oiseau galliforme appartenant à la famille des Odontophoridae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Colin_%C3%A0_face_blanche</t>
+          <t>Colin_à_face_blanche</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De silhouette arrondie, cet oiseau mesure entre 22 et 24 cm de longueur. Le mâle a une petite huppe, un sourcil blanc, une ligne sombre à travers l'œil, une gorge blanche ou brune et une crête courte. Le bas-ventre est tacheté, mais le reste du dessous est soit clair, soit entièrement tacheté, soit parsemé de roux au niveau de la poitrine selon la sous-espèce. Le mâle pèse 140 g en moyenne. La femelle est plus terne que le mâle avec un sourcil chamois et la gorge tachetée, sa masse moyenne est de 115 g.
 Le chant, le plus souvent lancé par le mâle au printemps et en été, est un ascendant, rêche, "bob-Wight" ou ""bob-bob-White".
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Colin_%C3%A0_face_blanche</t>
+          <t>Colin_à_face_blanche</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau se trouve au Salvador, au Guatemala, au Honduras, au Nicaragua et au Costa Rica.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Colin_%C3%A0_face_blanche</t>
+          <t>Colin_à_face_blanche</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce fréquente les savanes arborées ou avec des buissons et les bois.
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Colin_%C3%A0_face_blanche</t>
+          <t>Colin_à_face_blanche</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit en petits groupes.
 </t>
@@ -619,7 +639,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Colin_%C3%A0_face_blanche</t>
+          <t>Colin_à_face_blanche</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,7 +657,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce consomme des graines, de petits fruits et des insectes.
 </t>
@@ -650,7 +672,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Colin_%C3%A0_face_blanche</t>
+          <t>Colin_à_face_blanche</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -668,7 +690,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Selon Avibase, cet oiseau est représenté par 6 sous-espèces :
 Colinus leucopogon leucopogon ;
@@ -686,7 +710,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Colin_%C3%A0_face_blanche</t>
+          <t>Colin_à_face_blanche</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -704,7 +728,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Certains ornithologistes le considèrent comme une sous-espèce du Colin huppé.
 </t>
